--- a/my_project/'멍이와 나'-API문서.xlsx
+++ b/my_project/'멍이와 나'-API문서.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnala\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnala\OneDrive\바탕 화면\Sparta\github-scc\my_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,67 +21,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <x:si>
-    <x:t>일정 조회(Read)
+    <x:t>(JSON형식) 'result'='success', 'schedule'=모든 일정 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 일정 조회(Read)
 (1일/7일/30일 
 세 방식으로 제공)</x:t>
   </x:si>
   <x:si>
+    <x:t>4.일정 변경(Update)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답 정보(서버-&gt;클라이언트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 정보(클라이언트-&gt;서버)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 방식(GET/ POST)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/readsche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/makesche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/weather</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/fixsche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 삭제했습니다. 멍!'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 수정했습니다. 멍!'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날씨 openAPI를 활용. 
+(JSON 또는 HML형식-아마도?)
+'result'='success', 'weather'=오늘의 날씨(지역, 날씨, 최고기온, 최저기온)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정 날짜, 일정명(항목)</x:t>
+  </x:si>
+  <x:si>
     <x:t>~위의 것들 다 했다면~</x:t>
   </x:si>
   <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음. 받아온 날씨 데이터에 따라 
-메시지를 다르게 출력.</x:t>
-  </x:si>
-  <x:si>
     <x:t>(JSON형식) 'result'='success', 'msg'='작성하신 대로 스케줄을 기록했습니다. 멍!'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답 데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 방식(GET/ POST)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 삭제(Delete)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색결과 스케쥴 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날씨 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 보내기?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멍이와 나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/readsche</x:t>
   </x:si>
   <x:si>
     <x:t>(괄호로 나타낸 것은 option)
@@ -89,57 +87,59 @@
 (알림-1차 일&amp;시간 카톡/메일), (알림-2차 일&amp;시간 카톡/메일), (메모)</x:t>
   </x:si>
   <x:si>
-    <x:t>응답 정보(서버-&gt;클라이언트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 변경(Update)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 정보(클라이언트-&gt;서버)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날씨 openAPI를 활용. 
-(JSON 또는 HML형식-아마도?)
-'result'='success', 'weather'=오늘의 날씨(지역, 날씨, 최고기온, 최저기온)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/makesche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/clearsche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/searchsche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/fixsche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'schedule'=모든 일정 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 생성(Create)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 날짜, 일정명(항목)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 삭제했습니다. 멍!'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 수정했습니다. 멍!'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정 검색(Read)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 CRUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/weather</x:t>
+    <x:t>/findsche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음. 받아온 날씨 데이터에 따라 
+메시지를 다르게 출력.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멍이와 나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.날씨 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.일정 삭제(Delete)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 일정 생성(Create)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.알림 보내기?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.일정 검색(Read)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.회원정보 CRUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색결과'= '스케쥴 리스트'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/delsche</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -307,10 +307,13 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -320,6 +323,21 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -335,19 +353,7 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -360,6 +366,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -442,6 +449,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -476,6 +484,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -520,6 +529,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -563,6 +573,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -647,6 +658,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -667,6 +679,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -697,6 +710,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -950,247 +964,247 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="76" zoomScaleNormal="76" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3:C3"/>
+      <x:selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6:C6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.47265625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="22.72265625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="21.03515625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="75.48046875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="20.47265625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="22.72265625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="21.03515625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="38" style="2" customWidth="1"/>
+    <x:col min="6" max="6" width="75.48046875" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="A1" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D1" s="5"/>
-      <x:c r="E1" s="6"/>
-      <x:c r="F1" s="2" t="s">
-        <x:v>21</x:v>
+      <x:c r="A1" s="13" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B1" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" s="11"/>
+      <x:c r="E1" s="12"/>
+      <x:c r="F1" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="A2" s="8"/>
-      <x:c r="B2" s="8"/>
-      <x:c r="C2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>6</x:v>
+      <x:c r="A2" s="14"/>
+      <x:c r="B2" s="14"/>
+      <x:c r="C2" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:31" ht="65.5">
-      <x:c r="A3" s="10" t="s">
+      <x:c r="A3" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E3" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="10" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C3" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D3" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F3" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G3" s="12"/>
-      <x:c r="H3" s="12"/>
-      <x:c r="I3" s="12"/>
-      <x:c r="J3" s="12"/>
-      <x:c r="K3" s="12"/>
-      <x:c r="L3" s="12"/>
-      <x:c r="M3" s="12"/>
-      <x:c r="N3" s="12"/>
-      <x:c r="O3" s="12"/>
-      <x:c r="P3" s="12"/>
-      <x:c r="Q3" s="12"/>
-      <x:c r="R3" s="12"/>
-      <x:c r="S3" s="12"/>
-      <x:c r="T3" s="12"/>
-      <x:c r="U3" s="12"/>
-      <x:c r="V3" s="12"/>
-      <x:c r="W3" s="12"/>
-      <x:c r="X3" s="12"/>
-      <x:c r="Y3" s="12"/>
-      <x:c r="Z3" s="12"/>
-      <x:c r="AA3" s="12"/>
-      <x:c r="AB3" s="12"/>
-      <x:c r="AC3" s="12"/>
-      <x:c r="AD3" s="12"/>
-      <x:c r="AE3" s="12"/>
+      <x:c r="G3" s="8"/>
+      <x:c r="H3" s="8"/>
+      <x:c r="I3" s="8"/>
+      <x:c r="J3" s="8"/>
+      <x:c r="K3" s="8"/>
+      <x:c r="L3" s="8"/>
+      <x:c r="M3" s="8"/>
+      <x:c r="N3" s="8"/>
+      <x:c r="O3" s="8"/>
+      <x:c r="P3" s="8"/>
+      <x:c r="Q3" s="8"/>
+      <x:c r="R3" s="8"/>
+      <x:c r="S3" s="8"/>
+      <x:c r="T3" s="8"/>
+      <x:c r="U3" s="8"/>
+      <x:c r="V3" s="8"/>
+      <x:c r="W3" s="8"/>
+      <x:c r="X3" s="8"/>
+      <x:c r="Y3" s="8"/>
+      <x:c r="Z3" s="8"/>
+      <x:c r="AA3" s="8"/>
+      <x:c r="AB3" s="8"/>
+      <x:c r="AC3" s="8"/>
+      <x:c r="AD3" s="8"/>
+      <x:c r="AE3" s="8"/>
     </x:row>
     <x:row r="4" spans="1:31" ht="49.149999999999999">
-      <x:c r="A4" s="10"/>
-      <x:c r="B4" s="11" t="s">
+      <x:c r="A4" s="6"/>
+      <x:c r="B4" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E4" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F4" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C4" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D4" s="10" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="10" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G4" s="12"/>
-      <x:c r="H4" s="12"/>
-      <x:c r="I4" s="12"/>
-      <x:c r="J4" s="12"/>
-      <x:c r="K4" s="12"/>
-      <x:c r="L4" s="12"/>
-      <x:c r="M4" s="12"/>
-      <x:c r="N4" s="12"/>
-      <x:c r="O4" s="12"/>
-      <x:c r="P4" s="12"/>
-      <x:c r="Q4" s="12"/>
-      <x:c r="R4" s="12"/>
-      <x:c r="S4" s="12"/>
-      <x:c r="T4" s="12"/>
-      <x:c r="U4" s="12"/>
-      <x:c r="V4" s="12"/>
-      <x:c r="W4" s="12"/>
-      <x:c r="X4" s="12"/>
-      <x:c r="Y4" s="12"/>
-      <x:c r="Z4" s="12"/>
-      <x:c r="AA4" s="12"/>
-      <x:c r="AB4" s="12"/>
-      <x:c r="AC4" s="12"/>
-      <x:c r="AD4" s="12"/>
-      <x:c r="AE4" s="12"/>
+      <x:c r="G4" s="8"/>
+      <x:c r="H4" s="8"/>
+      <x:c r="I4" s="8"/>
+      <x:c r="J4" s="8"/>
+      <x:c r="K4" s="8"/>
+      <x:c r="L4" s="8"/>
+      <x:c r="M4" s="8"/>
+      <x:c r="N4" s="8"/>
+      <x:c r="O4" s="8"/>
+      <x:c r="P4" s="8"/>
+      <x:c r="Q4" s="8"/>
+      <x:c r="R4" s="8"/>
+      <x:c r="S4" s="8"/>
+      <x:c r="T4" s="8"/>
+      <x:c r="U4" s="8"/>
+      <x:c r="V4" s="8"/>
+      <x:c r="W4" s="8"/>
+      <x:c r="X4" s="8"/>
+      <x:c r="Y4" s="8"/>
+      <x:c r="Z4" s="8"/>
+      <x:c r="AA4" s="8"/>
+      <x:c r="AB4" s="8"/>
+      <x:c r="AC4" s="8"/>
+      <x:c r="AD4" s="8"/>
+      <x:c r="AE4" s="8"/>
     </x:row>
     <x:row r="5" spans="1:31" ht="37.5" customHeight="1">
-      <x:c r="A5" s="13"/>
-      <x:c r="B5" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
+      <x:c r="A5" s="9"/>
+      <x:c r="B5" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="12"/>
-      <x:c r="H5" s="12"/>
-      <x:c r="I5" s="12"/>
-      <x:c r="J5" s="12"/>
-      <x:c r="K5" s="12"/>
-      <x:c r="L5" s="12"/>
-      <x:c r="M5" s="12"/>
-      <x:c r="N5" s="12"/>
-      <x:c r="O5" s="12"/>
-      <x:c r="P5" s="12"/>
-      <x:c r="Q5" s="12"/>
-      <x:c r="R5" s="12"/>
-      <x:c r="S5" s="12"/>
-      <x:c r="T5" s="12"/>
-      <x:c r="U5" s="12"/>
-      <x:c r="V5" s="12"/>
-      <x:c r="W5" s="12"/>
-      <x:c r="X5" s="12"/>
-      <x:c r="Y5" s="12"/>
-      <x:c r="Z5" s="12"/>
-      <x:c r="AA5" s="12"/>
-      <x:c r="AB5" s="12"/>
-      <x:c r="AC5" s="12"/>
-      <x:c r="AD5" s="12"/>
-      <x:c r="AE5" s="12"/>
+      <x:c r="C5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="15" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" s="8"/>
+      <x:c r="H5" s="8"/>
+      <x:c r="I5" s="8"/>
+      <x:c r="J5" s="8"/>
+      <x:c r="K5" s="8"/>
+      <x:c r="L5" s="8"/>
+      <x:c r="M5" s="8"/>
+      <x:c r="N5" s="8"/>
+      <x:c r="O5" s="8"/>
+      <x:c r="P5" s="8"/>
+      <x:c r="Q5" s="8"/>
+      <x:c r="R5" s="8"/>
+      <x:c r="S5" s="8"/>
+      <x:c r="T5" s="8"/>
+      <x:c r="U5" s="8"/>
+      <x:c r="V5" s="8"/>
+      <x:c r="W5" s="8"/>
+      <x:c r="X5" s="8"/>
+      <x:c r="Y5" s="8"/>
+      <x:c r="Z5" s="8"/>
+      <x:c r="AA5" s="8"/>
+      <x:c r="AB5" s="8"/>
+      <x:c r="AC5" s="8"/>
+      <x:c r="AD5" s="8"/>
+      <x:c r="AE5" s="8"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="A6" s="3"/>
-      <x:c r="B6" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D6" s="13" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E6" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F6" s="13" t="s">
-        <x:v>33</x:v>
+      <x:c r="A6" s="4"/>
+      <x:c r="B6" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C6" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E6" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="9" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" ht="16.399999999999999">
-      <x:c r="A7" s="3"/>
-      <x:c r="B7" s="10" t="s">
+      <x:c r="A7" s="4"/>
+      <x:c r="B7" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E7" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="9" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E7" s="10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F7" s="13" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:2" customHeight="1">
-      <x:c r="B8" s="1" t="s">
+      <x:c r="B8" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:2" ht="13.199999999999999">
+      <x:c r="B9" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="2:6" ht="39" customHeight="1">
-      <x:c r="B9" s="10" t="s">
+    <x:row r="10" spans="2:6" ht="49.149999999999999">
+      <x:c r="B10" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E10" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D9" s="10" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E9" s="11" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F9" s="9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:2" customHeight="1">
-      <x:c r="B10" s="1" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:2" customHeight="1">
-      <x:c r="B11" s="1" t="s">
-        <x:v>36</x:v>
+      <x:c r="B11" s="2" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1199,7 +1213,7 @@
     <x:mergeCell ref="A1:A2"/>
     <x:mergeCell ref="B1:B2"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="C2:F2 A6:A7 A3:F4 B7:E7 B9:F9">
+  <x:conditionalFormatting sqref="C2:F2 A6:A7 A3:F4 B7:E7 B10:F10">
     <x:cfRule type="colorScale" priority="1">
       <x:colorScale>
         <x:cfvo type="min"/>
@@ -1209,7 +1223,7 @@
       </x:colorScale>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/my_project/'멍이와 나'-API문서.xlsx
+++ b/my_project/'멍이와 나'-API문서.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'schedule'=모든 일정 리스트</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+  <x:si>
+    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 수정했습니다. 멍!'</x:t>
   </x:si>
   <x:si>
     <x:t>2. 일정 조회(Read)
@@ -29,43 +29,32 @@
 세 방식으로 제공)</x:t>
   </x:si>
   <x:si>
-    <x:t>4.일정 변경(Update)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답 정보(서버-&gt;클라이언트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 정보(클라이언트-&gt;서버)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 방식(GET/ POST)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어</x:t>
+    <x:t>(JSON형식) 'result'='success', 'todolist'=모든 일정 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 삭제했습니다. 멍!'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음. 받아온 날씨 데이터에 따라 
+메시지를 다르게 출력.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/findsche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/fixsche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/makesche</x:t>
   </x:si>
   <x:si>
     <x:t>/readsche</x:t>
   </x:si>
   <x:si>
-    <x:t>/makesche</x:t>
-  </x:si>
-  <x:si>
     <x:t>/weather</x:t>
   </x:si>
   <x:si>
-    <x:t>/fixsche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 삭제했습니다. 멍!'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'msg'='스케줄을 수정했습니다. 멍!'</x:t>
+    <x:t>기능</x:t>
   </x:si>
   <x:si>
     <x:t>날씨 openAPI를 활용. 
@@ -73,55 +62,66 @@
 'result'='success', 'weather'=오늘의 날씨(지역, 날씨, 최고기온, 최저기온)</x:t>
   </x:si>
   <x:si>
-    <x:t>일정 날짜, 일정명(항목)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>~위의 것들 다 했다면~</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(JSON형식) 'result'='success', 'msg'='작성하신 대로 스케줄을 기록했습니다. 멍!'</x:t>
-  </x:si>
-  <x:si>
     <x:t>(괄호로 나타낸 것은 option)
 일정명, 시작일&amp;시간, 종료일&amp;시간, 
 (알림-1차 일&amp;시간 카톡/메일), (알림-2차 일&amp;시간 카톡/메일), (메모)</x:t>
   </x:si>
   <x:si>
-    <x:t>/findsche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음. 받아온 날씨 데이터에 따라 
-메시지를 다르게 출력.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
+    <x:t>일정 날짜, 일정명(항목)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.일정 검색(Read)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.일정 삭제(Delete)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.일정 변경(Update)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~위의 것들 다 했다면~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(JSON형식) 'result'='success', 'msg'='작성하신 대로 스케줄을 기록했습니다. 멍!'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.날씨 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멍이와 나</x:t>
   </x:si>
   <x:si>
     <x:t>응답 데이터</x:t>
   </x:si>
   <x:si>
-    <x:t>프로젝트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get?</x:t>
+    <x:t>post</x:t>
   </x:si>
   <x:si>
     <x:t>요청 URL</x:t>
   </x:si>
   <x:si>
-    <x:t>멍이와 나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.날씨 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.일정 삭제(Delete)</x:t>
+    <x:t>응답 정보(서버-&gt;클라이언트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 정보(클라이언트-&gt;서버)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색결과'= '스케쥴 리스트'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 방식(GET/ POST)</x:t>
   </x:si>
   <x:si>
     <x:t>1. 일정 생성(Create)</x:t>
@@ -130,16 +130,13 @@
     <x:t>6.알림 보내기?</x:t>
   </x:si>
   <x:si>
-    <x:t>3.일정 검색(Read)</x:t>
+    <x:t>/delsche</x:t>
   </x:si>
   <x:si>
     <x:t>8.회원정보 CRUD</x:t>
   </x:si>
   <x:si>
-    <x:t>검색결과'= '스케쥴 리스트'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/delsche</x:t>
+    <x:t>검색어(keyword)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -338,6 +335,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -351,9 +351,6 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -366,7 +363,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -449,7 +445,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -484,7 +479,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -529,7 +523,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -573,7 +566,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -658,7 +650,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -679,7 +670,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -710,7 +700,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -964,7 +953,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="76" zoomScaleNormal="76" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6:C6"/>
+      <x:selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6:B6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -977,52 +966,52 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="A1" s="13" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B1" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C1" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D1" s="11"/>
-      <x:c r="E1" s="12"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D1" s="12"/>
+      <x:c r="E1" s="13"/>
       <x:c r="F1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="A2" s="14"/>
-      <x:c r="B2" s="14"/>
+      <x:c r="A2" s="15"/>
+      <x:c r="B2" s="15"/>
       <x:c r="C2" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:31" ht="65.5">
       <x:c r="A3" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="6" t="s">
         <x:v>18</x:v>
@@ -1059,16 +1048,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G4" s="8"/>
       <x:c r="H4" s="8"/>
@@ -1099,19 +1088,19 @@
     <x:row r="5" spans="1:31" ht="37.5" customHeight="1">
       <x:c r="A5" s="9"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="15" t="s">
         <x:v>36</x:v>
+      </x:c>
+      <x:c r="F5" s="10" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="8"/>
       <x:c r="H5" s="8"/>
@@ -1142,37 +1131,37 @@
     <x:row r="6" spans="1:6" ht="37.5" customHeight="1">
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" ht="16.399999999999999">
       <x:c r="A7" s="4"/>
       <x:c r="B7" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F7" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:2" customHeight="1">
@@ -1187,19 +1176,19 @@
     </x:row>
     <x:row r="10" spans="2:6" ht="49.149999999999999">
       <x:c r="B10" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E10" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E10" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:2" customHeight="1">
@@ -1223,7 +1212,7 @@
       </x:colorScale>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>